--- a/Form.xlsx
+++ b/Form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brahmarishi/OneDrive/Go/eam-compute/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brahmarishi/OneDrive/Go/profit-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51263EAE-0045-4247-B834-77F7A0477FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568DCCC-BBA7-9C4A-8BC6-D501718CA213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="700" windowWidth="28040" windowHeight="16940" xr2:uid="{92B664AF-0E00-7F4A-8C04-896EDBB622DB}"/>
   </bookViews>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,12 +73,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +412,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,18 +421,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1000000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>600000</v>
       </c>
     </row>
